--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H2">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I2">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J2">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N2">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O2">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P2">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q2">
-        <v>2.091663140330556</v>
+        <v>0.431715964107</v>
       </c>
       <c r="R2">
-        <v>18.824968262975</v>
+        <v>3.885443676963</v>
       </c>
       <c r="S2">
-        <v>0.0003733850147812911</v>
+        <v>7.563673151016038E-05</v>
       </c>
       <c r="T2">
-        <v>0.000373385014781291</v>
+        <v>7.563673151016035E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H3">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I3">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J3">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P3">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q3">
-        <v>15.72935075245278</v>
+        <v>1.873965737670111</v>
       </c>
       <c r="R3">
-        <v>141.564156772075</v>
+        <v>16.865691639031</v>
       </c>
       <c r="S3">
-        <v>0.002807863154425783</v>
+        <v>0.0003283192078675685</v>
       </c>
       <c r="T3">
-        <v>0.002807863154425782</v>
+        <v>0.0003283192078675684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H4">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I4">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J4">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q4">
-        <v>37.28108862700555</v>
+        <v>4.441599901328223</v>
       </c>
       <c r="R4">
-        <v>335.52979764305</v>
+        <v>39.974399111954</v>
       </c>
       <c r="S4">
-        <v>0.006655086834803244</v>
+        <v>0.0007781692759664859</v>
       </c>
       <c r="T4">
-        <v>0.006655086834803243</v>
+        <v>0.0007781692759664856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I5">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J5">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N5">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O5">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P5">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q5">
-        <v>200.9401871422455</v>
+        <v>348.114664268961</v>
       </c>
       <c r="R5">
-        <v>1808.461684280209</v>
+        <v>3133.031978420649</v>
       </c>
       <c r="S5">
-        <v>0.03587004680610554</v>
+        <v>0.06098976545962316</v>
       </c>
       <c r="T5">
-        <v>0.03587004680610553</v>
+        <v>0.06098976545962315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I6">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J6">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P6">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q6">
         <v>1511.074428229579</v>
@@ -818,10 +818,10 @@
         <v>13599.66985406621</v>
       </c>
       <c r="S6">
-        <v>0.2697435054628191</v>
+        <v>0.2647405709359929</v>
       </c>
       <c r="T6">
-        <v>0.2697435054628189</v>
+        <v>0.2647405709359928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I7">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J7">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q7">
         <v>3581.489189694882</v>
@@ -880,10 +880,10 @@
         <v>32233.40270725394</v>
       </c>
       <c r="S7">
-        <v>0.6393354495035573</v>
+        <v>0.6274776908188495</v>
       </c>
       <c r="T7">
-        <v>0.6393354495035571</v>
+        <v>0.6274776908188493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H8">
         <v>136.463443</v>
       </c>
       <c r="I8">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J8">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N8">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O8">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P8">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q8">
-        <v>9.614744153031891</v>
+        <v>16.656864316023</v>
       </c>
       <c r="R8">
-        <v>86.53269737728701</v>
+        <v>149.911778844207</v>
       </c>
       <c r="S8">
-        <v>0.001716338218366653</v>
+        <v>0.002918286278058381</v>
       </c>
       <c r="T8">
-        <v>0.001716338218366653</v>
+        <v>0.00291828627805838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H9">
         <v>136.463443</v>
       </c>
       <c r="I9">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J9">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P9">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q9">
-        <v>72.30307799669546</v>
+        <v>72.30307799669544</v>
       </c>
       <c r="R9">
-        <v>650.7277019702591</v>
+        <v>650.727701970259</v>
       </c>
       <c r="S9">
-        <v>0.01290689945526436</v>
+        <v>0.01266751510824097</v>
       </c>
       <c r="T9">
-        <v>0.01290689945526435</v>
+        <v>0.01266751510824096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H10">
         <v>136.463443</v>
       </c>
       <c r="I10">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J10">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q10">
         <v>171.3699122883229</v>
@@ -1066,10 +1066,10 @@
         <v>1542.329210594906</v>
       </c>
       <c r="S10">
-        <v>0.03059142554987694</v>
+        <v>0.03002404618389103</v>
       </c>
       <c r="T10">
-        <v>0.03059142554987694</v>
+        <v>0.03002404618389102</v>
       </c>
     </row>
   </sheetData>
